--- a/FJSP实例.xlsx
+++ b/FJSP实例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="instance file" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,20 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">'instance file'!$A$1:$AJ$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
   <si>
     <t>{1,3}{5,4}</t>
   </si>
@@ -95,11 +108,26 @@
   <si>
     <t>{-3}{0}</t>
   </si>
+  <si>
+    <t>{2}{4}</t>
+  </si>
+  <si>
+    <t>{-2}{0}</t>
+  </si>
+  <si>
+    <t>{3,2,1}{1,2,5}</t>
+  </si>
+  <si>
+    <t>{2}{2}</t>
+  </si>
+  <si>
+    <t>{-1}{1}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1974,7 +2002,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2223,18 +2251,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="6.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="6.9537037037037" customWidth="1"/>
     <col min="7" max="7" width="2.88888888888889" customWidth="1"/>
     <col min="8" max="8" width="7.88888888888889" customWidth="1"/>
     <col min="9" max="9" width="14.5555555555556" customWidth="1"/>
@@ -2385,6 +2413,138 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
